--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,11 +483,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Откорректировать жёсткие брови воском у мастера</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Коррекция бровей</t>
         </is>
       </c>
@@ -501,11 +496,7 @@
           <t>2172</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>f-187579</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -520,12 +511,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Придание симметрии и формы бровям у мастера</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Уход за бровями.</t>
+          <t>Ламинирование бровей</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,11 +524,7 @@
           <t>2172</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>f-187713</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,11 +539,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Коррекция формы бровей триммером у мастера</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Коррекция бровей</t>
         </is>
       </c>
@@ -575,11 +552,7 @@
           <t>2172</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>f-187734</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -594,7 +567,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Откорректировать брови нитью и окрасить на дому</t>
+          <t>Долговременная укладка бровей</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -607,11 +580,7 @@
           <t>2172</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>f-185458</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -626,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Корректирование формы бровей шёлковой нитью</t>
+          <t>Коррекция бровей классическая</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -639,11 +608,7 @@
           <t>2172</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>f-185487</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -658,7 +623,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Придать форму бровям тридингом и окрасить в салоне</t>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -671,11 +636,7 @@
           <t>2172</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>f-185502</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -690,12 +651,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Выеду к мастеру по микроблейдингу и окраске бровей</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Нужна коррекция и окрашивание бровей</t>
+          <t>Окрашивание бровей</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -708,11 +664,7 @@
           <t>2172</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>f-184352</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -727,12 +679,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Срочно нужен мастер по коррекции бровей пинцетом</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Кто выполнит коррекцию бровей в Минске?</t>
+          <t>Коррекция бровей классическая</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -745,11 +692,7 @@
           <t>2172</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>f-184813</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -764,12 +707,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Безболезненная коррекция бровей триммером</t>
+          <t>Откорректировать жёсткие брови воском у мастера</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Коррекция бровей или на на дому, или сама поедет</t>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -784,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>f-185156</t>
+          <t>f-187579</t>
         </is>
       </c>
     </row>
@@ -801,7 +744,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Изменить форму бровей при помощи триммера в салоне</t>
+          <t>Придание симметрии и формы бровям у мастера</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Уход за бровями.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -816,7 +764,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>f-186756</t>
+          <t>f-187713</t>
         </is>
       </c>
     </row>
@@ -833,7 +781,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Услуги мастера по коррекции бровей карандашом</t>
+          <t>Коррекция формы бровей триммером у мастера</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -848,7 +801,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>f-187409</t>
+          <t>f-187734</t>
         </is>
       </c>
     </row>
@@ -865,7 +818,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Откорректировать брови с помощью тридинга в салоне</t>
+          <t>Откорректировать брови нитью и окрасить на дому</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -880,7 +833,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>f-187539</t>
+          <t>f-185458</t>
         </is>
       </c>
     </row>
@@ -897,12 +850,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Профессиональные услуги придания формы бровям</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Коррекция бровей.</t>
+          <t>Корректирование формы бровей шёлковой нитью</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -917,7 +865,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>f-185965</t>
+          <t>f-185487</t>
         </is>
       </c>
     </row>
@@ -934,12 +882,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Подстричь брови триммером в салоне красоты</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Коррекция бровей, Каменная горка</t>
+          <t>Придать форму бровям тридингом и окрасить в салоне</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -954,7 +897,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>f-186089</t>
+          <t>f-185502</t>
         </is>
       </c>
     </row>
@@ -971,12 +914,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Нитевая коррекция бровей в салоне красоты</t>
+          <t>Выеду к мастеру по микроблейдингу и окраске бровей</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Коррекция бровей. Московский.</t>
+          <t>Нужна коррекция и окрашивание бровей</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -991,7 +934,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>f-186195</t>
+          <t>f-184352</t>
         </is>
       </c>
     </row>
@@ -1008,7 +951,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Услуги визажиста по эффективной коррекции бровей</t>
+          <t>Срочно нужен мастер по коррекции бровей пинцетом</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Кто выполнит коррекцию бровей в Минске?</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1023,7 +971,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>f-182875</t>
+          <t>f-184813</t>
         </is>
       </c>
     </row>
@@ -1040,7 +988,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Корректировать брови воском и окрасить в салоне</t>
+          <t>Безболезненная коррекция бровей триммером</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Коррекция бровей или на на дому, или сама поедет</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1055,7 +1008,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>f-183257</t>
+          <t>f-185156</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1025,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Откорректировать брови пинцетом и окрасить на дому</t>
+          <t>Изменить форму бровей при помощи триммера в салоне</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1087,384 +1040,935 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>f-183272</t>
+          <t>f-186756</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Услуги мастера по коррекции бровей карандашом</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>f-187409</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Разборка сайдинга на балконе на следующей неделе</t>
+          <t>Откорректировать брови с помощью тридинга в салоне</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>f-52350</t>
+          <t>f-187539</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Обеспечить доступ к трубе На этой неделе</t>
+          <t>Профессиональные услуги придания формы бровям</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Коррекция бровей.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>f-56016</t>
+          <t>f-185965</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Мастер для демонтажа сайдинга и ремонт трубы</t>
+          <t>Подстричь брови триммером в салоне красоты</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Коррекция бровей, Каменная горка</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>f-155218</t>
+          <t>f-186089</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Произвести демонтаж сайдинга обшивки балкона</t>
+          <t>Нитевая коррекция бровей в салоне красоты</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Коррекция бровей. Московский.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>f-94747</t>
+          <t>f-186195</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Услуги мастера по демонтажу сайдинга</t>
+          <t>Услуги визажиста по эффективной коррекции бровей</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>f-97020</t>
+          <t>f-182875</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Убрать сайдинг на балконе за 40 руб</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>На следующей неделе произвести демонтаж сайдинга применяемого для обшивки балкона без рамы для дальнейшего производства капитального ремонта Работы оцениваются от 40 рублей Предложений только одно</t>
+          <t>Корректировать брови воском и окрасить в салоне</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>f-225971</t>
+          <t>f-183257</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Возьму рабочего для разбора обшивки стен</t>
+          <t>Откорректировать брови пинцетом и окрасить на дому</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>f-175843</t>
+          <t>f-183272</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Снять сайдинг для последующего ремонта</t>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>f-176051</t>
-        </is>
-      </c>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Убрать старую обшивку балкона перед капремонтом</t>
+          <t>Коррекция бровей классическая</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>f-165298</t>
-        </is>
-      </c>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Коррекция мужских бровей</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Разборка сайдинга на балконе на следующей неделе</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>f-52350</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Обеспечить доступ к трубе На этой неделе</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>f-56016</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Разборка сайдинга</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Разборка сайдинга</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Разборка сайдинга</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Разборка сайдинга</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Мастер для демонтажа сайдинга и ремонт трубы</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>f-155218</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Произвести демонтаж сайдинга обшивки балкона</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>f-94747</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Услуги мастера по демонтажу сайдинга</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>f-97020</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Убрать сайдинг на балконе за 40 руб</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>На следующей неделе произвести демонтаж сайдинга применяемого для обшивки балкона без рамы для дальнейшего производства капитального ремонта Работы оцениваются от 40 рублей Предложений только одно</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>f-225971</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Возьму рабочего для разбора обшивки стен</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>f-175843</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Снять сайдинг для последующего ремонта</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>f-176051</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Разборка сайдинга</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Убрать старую обшивку балкона перед капремонтом</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>f-165298</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Снять сайдинг для доступа к трубе район Советский</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>3299</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>4342</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>f-165624</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Демонтировать сайдинг на балконе под ремонт</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>3299</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>4342</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>f-155217</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Разборка сайдинга</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Разборка сайдинга</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,83 +473,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Коррекция бровей</t>
+          <t>Разборка сайдинга на балконе на следующей неделе</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>f-52350</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ламинирование бровей</t>
+          <t>Обеспечить доступ к трубе На этой неделе</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>f-56016</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Коррекция бровей</t>
+          <t>Разборка сайдинга</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -557,27 +565,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Долговременная укладка бровей</t>
+          <t>Разборка сайдинга</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -585,27 +593,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Коррекция бровей классическая</t>
+          <t>Разборка сайдинга</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -613,27 +621,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Коррекция бровей</t>
+          <t>Разборка сайдинга</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -641,861 +649,729 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Окрашивание бровей</t>
+          <t>Мастер для демонтажа сайдинга и ремонт трубы</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>f-155218</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Коррекция бровей классическая</t>
+          <t>Произвести демонтаж сайдинга обшивки балкона</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>f-94747</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Откорректировать жёсткие брови воском у мастера</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Коррекция бровей</t>
+          <t>Услуги мастера по демонтажу сайдинга</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>f-187579</t>
+          <t>f-97020</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Придание симметрии и формы бровям у мастера</t>
+          <t>Убрать сайдинг на балконе за 40 руб</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Уход за бровями.</t>
+          <t>На следующей неделе произвести демонтаж сайдинга применяемого для обшивки балкона без рамы для дальнейшего производства капитального ремонта Работы оцениваются от 40 рублей Предложений только одно</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>f-187713</t>
+          <t>f-225971</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Коррекция формы бровей триммером у мастера</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Коррекция бровей</t>
+          <t>Возьму рабочего для разбора обшивки стен</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>f-187734</t>
+          <t>f-175843</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Откорректировать брови нитью и окрасить на дому</t>
+          <t>Снять сайдинг для последующего ремонта</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>f-185458</t>
+          <t>f-176051</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Корректирование формы бровей шёлковой нитью</t>
+          <t>Разборка сайдинга</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>f-185487</t>
-        </is>
-      </c>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Придать форму бровям тридингом и окрасить в салоне</t>
+          <t>Убрать старую обшивку балкона перед капремонтом</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>f-185502</t>
+          <t>f-165298</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Выеду к мастеру по микроблейдингу и окраске бровей</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Нужна коррекция и окрашивание бровей</t>
+          <t>Снять сайдинг для доступа к трубе район Советский</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>f-184352</t>
+          <t>f-165624</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Срочно нужен мастер по коррекции бровей пинцетом</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Кто выполнит коррекцию бровей в Минске?</t>
+          <t>Демонтировать сайдинг на балконе под ремонт</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>f-184813</t>
+          <t>f-155217</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Безболезненная коррекция бровей триммером</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Коррекция бровей или на на дому, или сама поедет</t>
+          <t>Разборка сайдинга</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>f-185156</t>
-        </is>
-      </c>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
+          <t>Демонтаж сайдинга в Минске</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Изменить форму бровей при помощи триммера в салоне</t>
+          <t>Разборка сайдинга</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>f-186756</t>
-        </is>
-      </c>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Услуги мастера по коррекции бровей карандашом</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>f-187409</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Откорректировать брови с помощью тридинга в салоне</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>f-187539</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Профессиональные услуги придания формы бровям</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Коррекция бровей.</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>f-185965</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Подстричь брови триммером в салоне красоты</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Коррекция бровей, Каменная горка</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>f-186089</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Нитевая коррекция бровей в салоне красоты</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Коррекция бровей. Московский.</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>f-186195</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Услуги визажиста по эффективной коррекции бровей</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>f-182875</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Корректировать брови воском и окрасить в салоне</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>f-183257</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Откорректировать брови пинцетом и окрасить на дому</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>f-183272</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Коррекция бровей</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>4342</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Коррекция бровей классическая</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>4342</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://redsale.by/krasota/eyebrow</t>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Коррекция бровей в Минске</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Коррекция мужских бровей</t>
-        </is>
-      </c>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2172</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>4342</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Демонтаж сайдинга в Минске</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3299</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Демонтаж сайдинга в Минске</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Разборка сайдинга на балконе на следующей неделе</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>3299</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>f-52350</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Обеспечить доступ к трубе На этой неделе</t>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>f-56016</t>
-        </is>
-      </c>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Разборка сайдинга</t>
+          <t>Ламинирование бровей</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1503,27 +1379,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Разборка сайдинга</t>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1531,27 +1407,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Разборка сайдинга</t>
+          <t>Долговременная укладка бровей</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1559,27 +1435,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Разборка сайдинга</t>
+          <t>Коррекция бровей классическая</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1587,388 +1463,824 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Мастер для демонтажа сайдинга и ремонт трубы</t>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>f-155218</t>
-        </is>
-      </c>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Произвести демонтаж сайдинга обшивки балкона</t>
+          <t>Окрашивание бровей</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>f-94747</t>
-        </is>
-      </c>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Услуги мастера по демонтажу сайдинга</t>
+          <t>Коррекция бровей классическая</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>f-97020</t>
-        </is>
-      </c>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Убрать сайдинг на балконе за 40 руб</t>
+          <t>Откорректировать жёсткие брови воском у мастера</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>На следующей неделе произвести демонтаж сайдинга применяемого для обшивки балкона без рамы для дальнейшего производства капитального ремонта Работы оцениваются от 40 рублей Предложений только одно</t>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>f-225971</t>
+          <t>f-187579</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Возьму рабочего для разбора обшивки стен</t>
+          <t>Придание симметрии и формы бровям у мастера</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Уход за бровями.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>f-175843</t>
+          <t>f-187713</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Снять сайдинг для последующего ремонта</t>
+          <t>Коррекция формы бровей триммером у мастера</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Коррекция бровей</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>f-176051</t>
+          <t>f-187734</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Разборка сайдинга</t>
+          <t>Откорректировать брови нитью и окрасить на дому</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>f-185458</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Убрать старую обшивку балкона перед капремонтом</t>
+          <t>Корректирование формы бровей шёлковой нитью</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>f-165298</t>
+          <t>f-185487</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Снять сайдинг для доступа к трубе район Советский</t>
+          <t>Придать форму бровям тридингом и окрасить в салоне</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>f-165624</t>
+          <t>f-185502</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Демонтировать сайдинг на балконе под ремонт</t>
+          <t>Выеду к мастеру по микроблейдингу и окраске бровей</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Нужна коррекция и окрашивание бровей</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>2172</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>f-155217</t>
+          <t>f-184352</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Разборка сайдинга</t>
+          <t>Срочно нужен мастер по коррекции бровей пинцетом</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Кто выполнит коррекцию бровей в Минске?</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>f-184813</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://redsale.by/remont/fasadnye-raboty/demontazh-sajdinga</t>
+          <t>https://redsale.by/krasota/eyebrow</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Демонтаж сайдинга в Минске</t>
+          <t>Коррекция бровей в Минске</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Разборка сайдинга</t>
+          <t>Безболезненная коррекция бровей триммером</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Коррекция бровей или на на дому, или сама поедет</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>f-185156</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
-      <c r="C50" s="2" t="n"/>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Изменить форму бровей при помощи триммера в салоне</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>f-186756</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Услуги мастера по коррекции бровей карандашом</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>f-187409</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Откорректировать брови с помощью тридинга в салоне</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>f-187539</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Профессиональные услуги придания формы бровям</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Коррекция бровей.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>f-185965</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Подстричь брови триммером в салоне красоты</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Коррекция бровей, Каменная горка</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>f-186089</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Нитевая коррекция бровей в салоне красоты</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Коррекция бровей. Московский.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>f-186195</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Услуги визажиста по эффективной коррекции бровей</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>f-182875</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Корректировать брови воском и окрасить в салоне</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>f-183257</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Откорректировать брови пинцетом и окрасить на дому</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>f-183272</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Коррекция бровей</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Коррекция бровей классическая</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Коррекция мужских бровей</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://redsale.by/krasota/eyebrow</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Коррекция бровей в Минске</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
+      <c r="C63" s="2" t="n"/>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
